--- a/data/trans_camb/P19C07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.6185140880422723</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.3072141966947131</v>
+        <v>-0.3072141966947137</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.184879809547959</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.399336687172254</v>
+        <v>-2.228766305795945</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.680676564763359</v>
+        <v>-2.659474271738515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.81500719309528</v>
+        <v>-1.968525942896205</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.955978783665434</v>
+        <v>-2.864471357406171</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.283568075937735</v>
+        <v>-2.383085569069585</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.937136682291822</v>
+        <v>-1.72916878395206</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.168623749151772</v>
+        <v>-2.245973781744369</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.933026648294589</v>
+        <v>-2.063894945110734</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.43171096972067</v>
+        <v>-1.435666004358697</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6357739404951629</v>
+        <v>0.7788946849815195</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2906547439983945</v>
+        <v>0.4909445685430804</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.524056305527023</v>
+        <v>1.438163708615828</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.1461326840600781</v>
+        <v>-0.1900362365518892</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.322713799767566</v>
+        <v>1.140026532865614</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.127097862637436</v>
+        <v>1.28169149054338</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.1461307133102218</v>
+        <v>-0.2342239316356063</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.43529255914985</v>
+        <v>0.4183449205237921</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9197290491310781</v>
+        <v>0.8552275958896157</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1834182454124875</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.09110332329196669</v>
+        <v>-0.0911033232919669</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.3937524576100306</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7082846562454075</v>
+        <v>-0.6860562443222137</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8171142135958457</v>
+        <v>-0.8140497403640373</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5806530266124311</v>
+        <v>-0.603816927276814</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.68413925640733</v>
+        <v>-0.6781579397759241</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5564499763426352</v>
+        <v>-0.5688561780998191</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4515996315654875</v>
+        <v>-0.4174773165220461</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6146714280387425</v>
+        <v>-0.6338421463628718</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5594610024825157</v>
+        <v>-0.5898608081557964</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4003700570417017</v>
+        <v>-0.4050123139783822</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4415098249408681</v>
+        <v>0.4591645273623347</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3039755928582957</v>
+        <v>0.403204174912545</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9422925425753967</v>
+        <v>0.8888232821046499</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.01671186943107507</v>
+        <v>-0.05425314851121199</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5560877758049004</v>
+        <v>0.480974458100382</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4220630970731056</v>
+        <v>0.5383212933484495</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.04860265294176766</v>
+        <v>-0.05843142133653727</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1977223486813664</v>
+        <v>0.1766719720821881</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3809458957868134</v>
+        <v>0.3464356638281598</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.643847927968186</v>
+        <v>-1.656535610592837</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.918566953792365</v>
+        <v>-1.920879009662863</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.752530193503913</v>
+        <v>-1.703752927313259</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8420384224817213</v>
+        <v>-0.8291400855564155</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.420061551931305</v>
+        <v>-1.392988148493398</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.002914405258802</v>
+        <v>-0.9001191949221643</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9067704438531131</v>
+        <v>-0.8438707048230193</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.217021740711287</v>
+        <v>-1.168897266149328</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.8694627236044484</v>
+        <v>-0.9456738570870359</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.340154289639199</v>
+        <v>1.168683374733796</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.104719981489453</v>
+        <v>0.9627401575871771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.335305986999827</v>
+        <v>1.253946767166631</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.242200988436589</v>
+        <v>2.041556360188229</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.436405746854762</v>
+        <v>1.304741219630462</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.8097043523709</v>
+        <v>1.821174469672702</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.24679426303806</v>
+        <v>1.25562097684386</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8895910607886695</v>
+        <v>0.7603206654506848</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.159171102832311</v>
+        <v>1.151983330922648</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3403864938566949</v>
+        <v>-0.3460168162298393</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3893588473916879</v>
+        <v>-0.3751389675892651</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3685154934366828</v>
+        <v>-0.3590521207447182</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1802041631825169</v>
+        <v>-0.1755827864991353</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2980711364311914</v>
+        <v>-0.2987690791067425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2140223417964299</v>
+        <v>-0.1956380801745534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2015541691307738</v>
+        <v>-0.1944697098180969</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2598168936259392</v>
+        <v>-0.2583561120513012</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1981651991957256</v>
+        <v>-0.2038086511389446</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.40923459665867</v>
+        <v>0.3848936872842958</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3145098524787132</v>
+        <v>0.3036310891056272</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3884881007032526</v>
+        <v>0.3829069190418747</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7064179346761709</v>
+        <v>0.6055607852283702</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4200216533038189</v>
+        <v>0.4167837994887136</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5613670242339616</v>
+        <v>0.5820918896183395</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3637404627412378</v>
+        <v>0.3645580459292899</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2559932716680986</v>
+        <v>0.2175633231764985</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.351354272401887</v>
+        <v>0.3498796820922735</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8930733886764592</v>
+        <v>-1.207384203073159</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.423551724373127</v>
+        <v>-3.424798068773927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.220432673796884</v>
+        <v>-2.104463325314791</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.06389743791479845</v>
+        <v>0.003087839127454611</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.363320142101534</v>
+        <v>-1.172838068032917</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7754611049252587</v>
+        <v>0.7696476331064735</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01859007561756155</v>
+        <v>0.07104399851447916</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.622216045636389</v>
+        <v>-1.629489229040266</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.08294505546133361</v>
+        <v>-0.07177214394241822</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.249962135638212</v>
+        <v>3.923234755709691</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4380256968408525</v>
+        <v>0.5413917531998873</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.966745156856313</v>
+        <v>2.148457991304118</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.222079773648066</v>
+        <v>5.188402427385714</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.039762959281782</v>
+        <v>3.231099129471874</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.166520223935586</v>
+        <v>4.915320808724721</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.596166470613416</v>
+        <v>3.617426557711457</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.278454047559185</v>
+        <v>1.447651343178598</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.980887118009015</v>
+        <v>2.946883898036535</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2746348229751737</v>
+        <v>-0.3159848334704575</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8170914321047761</v>
+        <v>-0.7951403892938628</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5048905624847128</v>
+        <v>-0.5073786691707174</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1337970613126711</v>
+        <v>-0.1652221397806877</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5083139150390368</v>
+        <v>-0.4319522727124686</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1810864220898809</v>
+        <v>0.1360446541249726</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.003815025142962304</v>
+        <v>0.006060900991084706</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4822941562114921</v>
+        <v>-0.4891786078148941</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.03770166203280477</v>
+        <v>-0.04460168694509012</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.080309090754862</v>
+        <v>1.929275138400116</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2686680473435435</v>
+        <v>0.4463246970452474</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.056844110559479</v>
+        <v>1.180270581183714</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.230175758583664</v>
+        <v>4.598345413386393</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.353636934944323</v>
+        <v>2.926159393487213</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.442521471972435</v>
+        <v>4.531104213493041</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.960200246715541</v>
+        <v>1.968325418727682</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7411893792717226</v>
+        <v>0.8898999898848328</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.688051770461791</v>
+        <v>1.624080479945831</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.07184580189733905</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.7331336887014552</v>
+        <v>0.7331336887014546</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.02243534282536236</v>
@@ -1306,7 +1306,7 @@
         <v>-0.2421647898438496</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.3821523419042933</v>
+        <v>0.3821523419042939</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.035649862794775</v>
+        <v>-1.151880862747596</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.601719301870691</v>
+        <v>-1.585518641754992</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.068521957453569</v>
+        <v>-1.112914854830817</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9024923681619482</v>
+        <v>-0.8129904836610744</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.866265797278409</v>
+        <v>-0.8959523904437602</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.237931896112186</v>
+        <v>-0.2384284807403552</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6724022952322291</v>
+        <v>-0.6599611179562489</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.9754013286637661</v>
+        <v>-0.9141235387462859</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.3531337710333187</v>
+        <v>-0.3686374344887695</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.051333252314086</v>
+        <v>0.8963541226772346</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.387205227905372</v>
+        <v>0.4289862348632673</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.070586678155439</v>
+        <v>0.9377576450354154</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.061087043659093</v>
+        <v>1.100931135308647</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.077310243612464</v>
+        <v>1.141535600621635</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.683547513339466</v>
+        <v>1.728912171990419</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7169876648442611</v>
+        <v>0.7534030484834168</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4392876142358187</v>
+        <v>0.4667727432654535</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.053205333107697</v>
+        <v>1.08496411042555</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.02070902504976132</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2113204045775244</v>
+        <v>0.2113204045775242</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.006497146854406451</v>
@@ -1411,7 +1411,7 @@
         <v>-0.07012953690207561</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1106691306406384</v>
+        <v>0.1106691306406387</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2614630824268478</v>
+        <v>-0.2884944894592951</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4056474426623288</v>
+        <v>-0.3985121838186186</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2824315866885792</v>
+        <v>-0.2776303471993837</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2202722481603227</v>
+        <v>-0.2124082900296254</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2218716783842145</v>
+        <v>-0.2237044745608726</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.06298532699921415</v>
+        <v>-0.06144517810312551</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1747629246674262</v>
+        <v>-0.1774328837404827</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2535628144230987</v>
+        <v>-0.2441043670544003</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.09323654361407013</v>
+        <v>-0.09303121517151945</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3698172121364087</v>
+        <v>0.3044163388491124</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1486372253062244</v>
+        <v>0.1664572549364013</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3683495479783152</v>
+        <v>0.3153912233146035</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3654278394159474</v>
+        <v>0.3615007576594557</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3693983640454272</v>
+        <v>0.3750413651686028</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5630167225477638</v>
+        <v>0.5922722290324139</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2380454875421772</v>
+        <v>0.2474899755398083</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1472328244888842</v>
+        <v>0.1526998015480588</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3357444238919851</v>
+        <v>0.3453608001449053</v>
       </c>
     </row>
     <row r="28">
